--- a/public/userLog.xlsx
+++ b/public/userLog.xlsx
@@ -54,52 +54,52 @@
     <row r="1" spans="1:10">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="C1" s="0" t="inlineStr">
         <is>
-          <t>phone_number</t>
+          <t>Number</t>
         </is>
       </c>
       <c r="D1" s="0" t="inlineStr">
         <is>
-          <t>designation</t>
+          <t>Group1</t>
         </is>
       </c>
       <c r="E1" s="0" t="inlineStr">
         <is>
-          <t>group1</t>
+          <t>Group2</t>
         </is>
       </c>
       <c r="F1" s="0" t="inlineStr">
         <is>
-          <t>group2</t>
+          <t>Group3</t>
         </is>
       </c>
       <c r="G1" s="0" t="inlineStr">
         <is>
-          <t>group3</t>
+          <t>Group4</t>
         </is>
       </c>
       <c r="H1" s="0" t="inlineStr">
         <is>
-          <t>group4</t>
+          <t>Designation</t>
         </is>
       </c>
       <c r="I1" s="0" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>Status</t>
         </is>
       </c>
       <c r="J1" s="0" t="inlineStr">
         <is>
-          <t>remark</t>
+          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -121,27 +121,27 @@
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Ahmedabad 4 Region</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>Rest of West</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
           <t>BM</t>
-        </is>
-      </c>
-      <c r="E2" s="0" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="F2" s="0" t="inlineStr">
-        <is>
-          <t>Ahmedabad 4 Region</t>
-        </is>
-      </c>
-      <c r="G2" s="0" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>Rest of West</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
@@ -168,27 +168,27 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>Ahmedabad 4 Region</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>Rest of West</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
           <t>BM</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>Ahmedabad 4 Region</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>Rest of West</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
@@ -215,27 +215,27 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Bangalore-Koramangala Region</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="H4" s="0" t="inlineStr">
+        <is>
           <t>TTT</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>Bangalore-Koramangala Region</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>South</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
@@ -267,27 +267,27 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>Ahmedabad 4 Region</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t>Rest of West</t>
+        </is>
+      </c>
+      <c r="H5" s="0" t="inlineStr">
+        <is>
           <t>BM</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Ahmedabad 4 Region</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>Rest of West</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
@@ -314,27 +314,27 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>Bangalore-Koramangala Region</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="H6" s="0" t="inlineStr">
+        <is>
           <t>BM</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>Bangalore-Koramangala Region</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>South</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">

--- a/public/userLog.xlsx
+++ b/public/userLog.xlsx
@@ -245,7 +245,7 @@
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>group are not mapped for user.</t>
+          <t>Invalid designation mapped for user.</t>
         </is>
       </c>
     </row>

--- a/public/userLog.xlsx
+++ b/public/userLog.xlsx
@@ -163,7 +163,7 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>+91 8158675787</t>
+          <t>+91 81558675787</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -205,12 +205,12 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>abcd4@test.com</t>
+          <t>abcd6@test.com</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>+91 972040244</t>
+          <t>+91 992040244</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -245,101 +245,7 @@
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>Invalid designation mapped for user.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>Aruna Vaidya</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>abcd5@test.com</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>+91 81558675787</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="E5" s="0" t="inlineStr">
-        <is>
-          <t>Ahmedabad 4 Region</t>
-        </is>
-      </c>
-      <c r="F5" s="0" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
-        </is>
-      </c>
-      <c r="G5" s="0" t="inlineStr">
-        <is>
-          <t>Rest of West</t>
-        </is>
-      </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>BM</t>
-        </is>
-      </c>
-      <c r="I5" s="0" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>Leeja L</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>abcd6@test.com</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>+91 992040244</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>Bangalore-Koramangala Region</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
-        </is>
-      </c>
-      <c r="G6" s="0" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>BM</t>
-        </is>
-      </c>
-      <c r="I6" s="0" t="inlineStr">
-        <is>
-          <t>success</t>
+          <t>Phone Number is already exist.</t>
         </is>
       </c>
     </row>

--- a/public/userLog.xlsx
+++ b/public/userLog.xlsx
@@ -287,12 +287,7 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="J5" s="0" t="inlineStr">
-        <is>
-          <t>Email is already exist.</t>
+          <t>success</t>
         </is>
       </c>
     </row>
@@ -346,7 +341,7 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>1234567890</t>
+          <t>1234567890111</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
@@ -361,12 +356,7 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>Phone Number is already exist.</t>
+          <t>success</t>
         </is>
       </c>
     </row>
@@ -434,6 +424,95 @@
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Kailas Blr ( PB )</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>kailasblr@test.com</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>992040245</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>Bangalore-Koramangala Region</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>PB</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Rrgion Head</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>regionhead@test.com</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>7373749024</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>Bangalore-Koramangala Region</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
         <is>
           <t>success</t>
         </is>

--- a/public/userLog.xlsx
+++ b/public/userLog.xlsx
@@ -287,7 +287,12 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>success</t>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Email is already exist.</t>
         </is>
       </c>
     </row>
@@ -363,17 +368,32 @@
     <row r="8" spans="1:10">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Leeja ( South ) </t>
+          <t>Kailas Blr ( PB )</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>leejas@test.com</t>
+          <t>kailasblr@test.com</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>1234567891</t>
+          <t>992040245</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>Bangalore-Koramangala Region</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
@@ -383,7 +403,7 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>RBH</t>
+          <t>PB</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
@@ -395,22 +415,17 @@
     <row r="9" spans="1:10">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Zone head ( BLR )</t>
+          <t>Leeja ( South ) </t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>zonehb@test.com</t>
+          <t>leejas@test.com</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>7373749023</t>
-        </is>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t>Karnataka</t>
+          <t>1234567891</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
@@ -420,7 +435,7 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>ZH</t>
+          <t>RBH</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
@@ -432,27 +447,17 @@
     <row r="10" spans="1:10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Kailas Blr ( PB )</t>
+          <t>Zone head ( BLR )</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>kailasblr@test.com</t>
+          <t>zonehb@test.com</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>992040245</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>Bangalore-Koramangala Region</t>
+          <t>7373749023</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
@@ -467,7 +472,7 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>ZH</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
@@ -513,6 +518,53 @@
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Kailas Sanap</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>kailasanap@gmail.com</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>12323435435</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>Ahmedabad 4 Region</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>Rest of West</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>BM</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
         <is>
           <t>success</t>
         </is>
